--- a/atlas-table.xlsx
+++ b/atlas-table.xlsx
@@ -22,6 +22,17 @@
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <webPublishing allowPng="1" css="0" characterSet="UTF-8"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="2">
+  <si>
+    <t>Croatia is a new country, no previous content.</t>
+  </si>
+  <si>
+    <t>Croatia is a new country, no previous content.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,12 +62,22 @@
       <strike val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -83,13 +104,19 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <alignment horizontal="general" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <alignment horizontal="general" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
@@ -109,7 +136,8 @@
   <dimension ref="A1:IV32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="D3" sqref="D3"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -118,10 +146,10 @@
     <col min="2" max="2" style="1" width="8.142368" customWidth="1"/>
     <col min="3" max="3" style="1" width="9.570853" customWidth="1"/>
     <col min="4" max="4" style="1" width="24.28425" customWidth="1"/>
-    <col min="5" max="5" style="1" width="21.57013" customWidth="1"/>
+    <col min="5" max="5" style="1" width="25.14135" customWidth="1"/>
     <col min="6" max="6" style="1" width="32.42662" customWidth="1"/>
     <col min="7" max="7" style="1" width="43.99736" customWidth="1"/>
-    <col min="8" max="8" style="1" width="33.28371" customWidth="1"/>
+    <col min="8" max="8" style="1" width="38.42626" customWidth="1"/>
     <col min="9" max="256" style="1"/>
   </cols>
   <sheetData>
@@ -150,348 +178,394 @@
       <c r="H1" s="2" t="str">
         <v>Comments/requests</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CF1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CH1" s="2"/>
-      <c r="CI1" s="2"/>
-      <c r="CJ1" s="2"/>
-      <c r="CK1" s="2"/>
-      <c r="CL1" s="2"/>
-      <c r="CM1" s="2"/>
-      <c r="CN1" s="2"/>
-      <c r="CO1" s="2"/>
-      <c r="CP1" s="2"/>
-      <c r="CQ1" s="2"/>
-      <c r="CR1" s="2"/>
-      <c r="CS1" s="2"/>
-      <c r="CT1" s="2"/>
-      <c r="CU1" s="2"/>
-      <c r="CV1" s="2"/>
-      <c r="CW1" s="2"/>
-      <c r="CX1" s="2"/>
-      <c r="CY1" s="2"/>
-      <c r="CZ1" s="2"/>
-      <c r="DA1" s="2"/>
-      <c r="DB1" s="2"/>
-      <c r="DC1" s="2"/>
-      <c r="DD1" s="2"/>
-      <c r="DE1" s="2"/>
-      <c r="DF1" s="2"/>
-      <c r="DG1" s="2"/>
-      <c r="DH1" s="2"/>
-      <c r="DI1" s="2"/>
-      <c r="DJ1" s="2"/>
-      <c r="DK1" s="2"/>
-      <c r="DL1" s="2"/>
-      <c r="DM1" s="2"/>
-      <c r="DN1" s="2"/>
-      <c r="DO1" s="2"/>
-      <c r="DP1" s="2"/>
-      <c r="DQ1" s="2"/>
-      <c r="DR1" s="2"/>
-      <c r="DS1" s="2"/>
-      <c r="DT1" s="2"/>
-      <c r="DU1" s="2"/>
-      <c r="DV1" s="2"/>
-      <c r="DW1" s="2"/>
-      <c r="DX1" s="2"/>
-      <c r="DY1" s="2"/>
-      <c r="DZ1" s="2"/>
-      <c r="EA1" s="2"/>
-      <c r="EB1" s="2"/>
-      <c r="EC1" s="2"/>
-      <c r="ED1" s="2"/>
-      <c r="EE1" s="2"/>
-      <c r="EF1" s="2"/>
-      <c r="EG1" s="2"/>
-      <c r="EH1" s="2"/>
-      <c r="EI1" s="2"/>
-      <c r="EJ1" s="2"/>
-      <c r="EK1" s="2"/>
-      <c r="EL1" s="2"/>
-      <c r="EM1" s="2"/>
-      <c r="EN1" s="2"/>
-      <c r="EO1" s="2"/>
-      <c r="EP1" s="2"/>
-      <c r="EQ1" s="2"/>
-      <c r="ER1" s="2"/>
-      <c r="ES1" s="2"/>
-      <c r="ET1" s="2"/>
-      <c r="EU1" s="2"/>
-      <c r="EV1" s="2"/>
-      <c r="EW1" s="2"/>
-      <c r="EX1" s="2"/>
-      <c r="EY1" s="2"/>
-      <c r="EZ1" s="2"/>
-      <c r="FA1" s="2"/>
-      <c r="FB1" s="2"/>
-      <c r="FC1" s="2"/>
-      <c r="FD1" s="2"/>
-      <c r="FE1" s="2"/>
-      <c r="FF1" s="2"/>
-      <c r="FG1" s="2"/>
-      <c r="FH1" s="2"/>
-      <c r="FI1" s="2"/>
-      <c r="FJ1" s="2"/>
-      <c r="FK1" s="2"/>
-      <c r="FL1" s="2"/>
-      <c r="FM1" s="2"/>
-      <c r="FN1" s="2"/>
-      <c r="FO1" s="2"/>
-      <c r="FP1" s="2"/>
-      <c r="FQ1" s="2"/>
-      <c r="FR1" s="2"/>
-      <c r="FS1" s="2"/>
-      <c r="FT1" s="2"/>
-      <c r="FU1" s="2"/>
-      <c r="FV1" s="2"/>
-      <c r="FW1" s="2"/>
-      <c r="FX1" s="2"/>
-      <c r="FY1" s="2"/>
-      <c r="FZ1" s="2"/>
-      <c r="GA1" s="2"/>
-      <c r="GB1" s="2"/>
-      <c r="GC1" s="2"/>
-      <c r="GD1" s="2"/>
-      <c r="GE1" s="2"/>
-      <c r="GF1" s="2"/>
-      <c r="GG1" s="2"/>
-      <c r="GH1" s="2"/>
-      <c r="GI1" s="2"/>
-      <c r="GJ1" s="2"/>
-      <c r="GK1" s="2"/>
-      <c r="GL1" s="2"/>
-      <c r="GM1" s="2"/>
-      <c r="GN1" s="2"/>
-      <c r="GO1" s="2"/>
-      <c r="GP1" s="2"/>
-      <c r="GQ1" s="2"/>
-      <c r="GR1" s="2"/>
-      <c r="GS1" s="2"/>
-      <c r="GT1" s="2"/>
-      <c r="GU1" s="2"/>
-      <c r="GV1" s="2"/>
-      <c r="GW1" s="2"/>
-      <c r="GX1" s="2"/>
-      <c r="GY1" s="2"/>
-      <c r="GZ1" s="2"/>
-      <c r="HA1" s="2"/>
-      <c r="HB1" s="2"/>
-      <c r="HC1" s="2"/>
-      <c r="HD1" s="2"/>
-      <c r="HE1" s="2"/>
-      <c r="HF1" s="2"/>
-      <c r="HG1" s="2"/>
-      <c r="HH1" s="2"/>
-      <c r="HI1" s="2"/>
-      <c r="HJ1" s="2"/>
-      <c r="HK1" s="2"/>
-      <c r="HL1" s="2"/>
-      <c r="HM1" s="2"/>
-      <c r="HN1" s="2"/>
-      <c r="HO1" s="2"/>
-      <c r="HP1" s="2"/>
-      <c r="HQ1" s="2"/>
-      <c r="HR1" s="2"/>
-      <c r="HS1" s="2"/>
-      <c r="HT1" s="2"/>
-      <c r="HU1" s="2"/>
-      <c r="HV1" s="2"/>
-      <c r="HW1" s="2"/>
-      <c r="HX1" s="2"/>
-      <c r="HY1" s="2"/>
-      <c r="HZ1" s="2"/>
-      <c r="IA1" s="2"/>
-      <c r="IB1" s="2"/>
-      <c r="IC1" s="2"/>
-      <c r="ID1" s="2"/>
-      <c r="IE1" s="2"/>
-      <c r="IF1" s="2"/>
-      <c r="IG1" s="2"/>
-      <c r="IH1" s="2"/>
-      <c r="II1" s="2"/>
-      <c r="IJ1" s="2"/>
-      <c r="IK1" s="2"/>
-      <c r="IL1" s="2"/>
-      <c r="IM1" s="2"/>
-      <c r="IN1" s="2"/>
-      <c r="IO1" s="2"/>
-      <c r="IP1" s="2"/>
-      <c r="IQ1" s="2"/>
-      <c r="IR1" s="2"/>
-      <c r="IS1" s="2"/>
-      <c r="IT1" s="2"/>
-      <c r="IU1" s="2"/>
-      <c r="IV1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3"/>
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="3"/>
+      <c r="CJ1" s="3"/>
+      <c r="CK1" s="3"/>
+      <c r="CL1" s="3"/>
+      <c r="CM1" s="3"/>
+      <c r="CN1" s="3"/>
+      <c r="CO1" s="3"/>
+      <c r="CP1" s="3"/>
+      <c r="CQ1" s="3"/>
+      <c r="CR1" s="3"/>
+      <c r="CS1" s="3"/>
+      <c r="CT1" s="3"/>
+      <c r="CU1" s="3"/>
+      <c r="CV1" s="3"/>
+      <c r="CW1" s="3"/>
+      <c r="CX1" s="3"/>
+      <c r="CY1" s="3"/>
+      <c r="CZ1" s="3"/>
+      <c r="DA1" s="3"/>
+      <c r="DB1" s="3"/>
+      <c r="DC1" s="3"/>
+      <c r="DD1" s="3"/>
+      <c r="DE1" s="3"/>
+      <c r="DF1" s="3"/>
+      <c r="DG1" s="3"/>
+      <c r="DH1" s="3"/>
+      <c r="DI1" s="3"/>
+      <c r="DJ1" s="3"/>
+      <c r="DK1" s="3"/>
+      <c r="DL1" s="3"/>
+      <c r="DM1" s="3"/>
+      <c r="DN1" s="3"/>
+      <c r="DO1" s="3"/>
+      <c r="DP1" s="3"/>
+      <c r="DQ1" s="3"/>
+      <c r="DR1" s="3"/>
+      <c r="DS1" s="3"/>
+      <c r="DT1" s="3"/>
+      <c r="DU1" s="3"/>
+      <c r="DV1" s="3"/>
+      <c r="DW1" s="3"/>
+      <c r="DX1" s="3"/>
+      <c r="DY1" s="3"/>
+      <c r="DZ1" s="3"/>
+      <c r="EA1" s="3"/>
+      <c r="EB1" s="3"/>
+      <c r="EC1" s="3"/>
+      <c r="ED1" s="3"/>
+      <c r="EE1" s="3"/>
+      <c r="EF1" s="3"/>
+      <c r="EG1" s="3"/>
+      <c r="EH1" s="3"/>
+      <c r="EI1" s="3"/>
+      <c r="EJ1" s="3"/>
+      <c r="EK1" s="3"/>
+      <c r="EL1" s="3"/>
+      <c r="EM1" s="3"/>
+      <c r="EN1" s="3"/>
+      <c r="EO1" s="3"/>
+      <c r="EP1" s="3"/>
+      <c r="EQ1" s="3"/>
+      <c r="ER1" s="3"/>
+      <c r="ES1" s="3"/>
+      <c r="ET1" s="3"/>
+      <c r="EU1" s="3"/>
+      <c r="EV1" s="3"/>
+      <c r="EW1" s="3"/>
+      <c r="EX1" s="3"/>
+      <c r="EY1" s="3"/>
+      <c r="EZ1" s="3"/>
+      <c r="FA1" s="3"/>
+      <c r="FB1" s="3"/>
+      <c r="FC1" s="3"/>
+      <c r="FD1" s="3"/>
+      <c r="FE1" s="3"/>
+      <c r="FF1" s="3"/>
+      <c r="FG1" s="3"/>
+      <c r="FH1" s="3"/>
+      <c r="FI1" s="3"/>
+      <c r="FJ1" s="3"/>
+      <c r="FK1" s="3"/>
+      <c r="FL1" s="3"/>
+      <c r="FM1" s="3"/>
+      <c r="FN1" s="3"/>
+      <c r="FO1" s="3"/>
+      <c r="FP1" s="3"/>
+      <c r="FQ1" s="3"/>
+      <c r="FR1" s="3"/>
+      <c r="FS1" s="3"/>
+      <c r="FT1" s="3"/>
+      <c r="FU1" s="3"/>
+      <c r="FV1" s="3"/>
+      <c r="FW1" s="3"/>
+      <c r="FX1" s="3"/>
+      <c r="FY1" s="3"/>
+      <c r="FZ1" s="3"/>
+      <c r="GA1" s="3"/>
+      <c r="GB1" s="3"/>
+      <c r="GC1" s="3"/>
+      <c r="GD1" s="3"/>
+      <c r="GE1" s="3"/>
+      <c r="GF1" s="3"/>
+      <c r="GG1" s="3"/>
+      <c r="GH1" s="3"/>
+      <c r="GI1" s="3"/>
+      <c r="GJ1" s="3"/>
+      <c r="GK1" s="3"/>
+      <c r="GL1" s="3"/>
+      <c r="GM1" s="3"/>
+      <c r="GN1" s="3"/>
+      <c r="GO1" s="3"/>
+      <c r="GP1" s="3"/>
+      <c r="GQ1" s="3"/>
+      <c r="GR1" s="3"/>
+      <c r="GS1" s="3"/>
+      <c r="GT1" s="3"/>
+      <c r="GU1" s="3"/>
+      <c r="GV1" s="3"/>
+      <c r="GW1" s="3"/>
+      <c r="GX1" s="3"/>
+      <c r="GY1" s="3"/>
+      <c r="GZ1" s="3"/>
+      <c r="HA1" s="3"/>
+      <c r="HB1" s="3"/>
+      <c r="HC1" s="3"/>
+      <c r="HD1" s="3"/>
+      <c r="HE1" s="3"/>
+      <c r="HF1" s="3"/>
+      <c r="HG1" s="3"/>
+      <c r="HH1" s="3"/>
+      <c r="HI1" s="3"/>
+      <c r="HJ1" s="3"/>
+      <c r="HK1" s="3"/>
+      <c r="HL1" s="3"/>
+      <c r="HM1" s="3"/>
+      <c r="HN1" s="3"/>
+      <c r="HO1" s="3"/>
+      <c r="HP1" s="3"/>
+      <c r="HQ1" s="3"/>
+      <c r="HR1" s="3"/>
+      <c r="HS1" s="3"/>
+      <c r="HT1" s="3"/>
+      <c r="HU1" s="3"/>
+      <c r="HV1" s="3"/>
+      <c r="HW1" s="3"/>
+      <c r="HX1" s="3"/>
+      <c r="HY1" s="3"/>
+      <c r="HZ1" s="3"/>
+      <c r="IA1" s="3"/>
+      <c r="IB1" s="3"/>
+      <c r="IC1" s="3"/>
+      <c r="ID1" s="3"/>
+      <c r="IE1" s="3"/>
+      <c r="IF1" s="3"/>
+      <c r="IG1" s="3"/>
+      <c r="IH1" s="3"/>
+      <c r="II1" s="3"/>
+      <c r="IJ1" s="3"/>
+      <c r="IK1" s="3"/>
+      <c r="IL1" s="3"/>
+      <c r="IM1" s="3"/>
+      <c r="IN1" s="3"/>
+      <c r="IO1" s="3"/>
+      <c r="IP1" s="3"/>
+      <c r="IQ1" s="3"/>
+      <c r="IR1" s="3"/>
+      <c r="IS1" s="3"/>
+      <c r="IT1" s="3"/>
+      <c r="IU1" s="3"/>
+      <c r="IV1" s="3"/>
     </row>
     <row r="2" spans="1:256">
+      <c r="A2" s="4"/>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:256">
-      <c r="A3" t="str">
+    <row r="3" spans="1:256" ht="33" customHeight="1">
+      <c r="A3" s="4" t="str">
         <v>Austria</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="H3" t="str">
+        <v>Austria requested for a visit to Vienna, in combination with visit to Hungary</v>
+      </c>
     </row>
     <row r="4" spans="1:256">
-      <c r="A4" t="str">
+      <c r="A4" s="4" t="str">
         <v>Belgium</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="H4" t="str">
+        <v>Belgium requested a visit to work on new regional division of the country.</v>
+      </c>
     </row>
     <row r="5" spans="1:256">
-      <c r="A5" t="str">
+      <c r="A5" s="4" t="str">
         <v>Bulgaria</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="H5" t="str">
+        <v>Bulgaria indicated there are some problems with localities belonging to wrong regions. Also there seems to be a general lack of maintenance concerning the contents. Visit was mentioned, but it this point not needed.</v>
+      </c>
     </row>
     <row r="6" spans="1:256">
-      <c r="A6" t="str">
+      <c r="A6" s="4" t="str">
         <v>Croatia</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Croatia as new country requested for a visit. I am working on the Atlas based on information provided by Tamara.</v>
+      </c>
     </row>
     <row r="7" spans="1:256">
-      <c r="A7" t="str">
+      <c r="A7" s="4" t="str">
         <v>Cyprus</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="H7" t="str">
+        <v>No comments, no need for Atlas updates.</v>
+      </c>
     </row>
     <row r="8" spans="1:256">
-      <c r="A8" t="str">
+      <c r="A8" s="4" t="str">
         <v>Czech Republic</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
+      <c r="H8" t="str">
+        <v>TC noted problem with duplicated locality names. No further comments or need for visit.</v>
+      </c>
     </row>
     <row r="9" spans="1:256">
-      <c r="A9" t="str">
+      <c r="A9" s="4" t="str">
         <v>Denmark</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
+      <c r="H9" t="str">
+        <v>No comments on Atlas.</v>
+      </c>
     </row>
     <row r="10" spans="1:256">
-      <c r="A10" t="str">
+      <c r="A10" s="4" t="str">
         <v>Estonia</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
+      <c r="H10" t="str">
+        <v>Atlas up-to-date.</v>
+      </c>
     </row>
     <row r="11" spans="1:256">
-      <c r="A11" t="str">
+      <c r="A11" s="4" t="str">
         <v>Finland</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
+      <c r="H11" t="str">
+        <v>Minor changes to localities (going into different regions). No further issues mentioned</v>
+      </c>
     </row>
     <row r="12" spans="1:256">
-      <c r="A12" t="str">
+      <c r="A12" s="4" t="str">
         <v>France</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="H12" t="str">
+        <v>It was indicated the French Atlas is very out-of-date and contains many mistakes. It will be better to start with a clean set of data.</v>
+      </c>
     </row>
     <row r="13" spans="1:256">
-      <c r="A13" t="str">
+      <c r="A13" s="4" t="str">
         <v>Germany</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
+      <c r="H13" t="str">
+        <v>Germany indicated a new Authority Type to be included, which will follow the regional division of existing authority types.</v>
+      </c>
     </row>
     <row r="14" spans="1:256">
-      <c r="A14" t="str">
+      <c r="A14" s="4" t="str">
         <v>Greece</v>
       </c>
       <c r="B14">
@@ -499,7 +573,7 @@
       </c>
     </row>
     <row r="15" spans="1:256">
-      <c r="A15" t="str">
+      <c r="A15" s="4" t="str">
         <v>Hungary</v>
       </c>
       <c r="B15">
@@ -507,7 +581,7 @@
       </c>
     </row>
     <row r="16" spans="1:256">
-      <c r="A16" t="str">
+      <c r="A16" s="4" t="str">
         <v>Ireland</v>
       </c>
       <c r="B16">
@@ -515,7 +589,7 @@
       </c>
     </row>
     <row r="17" spans="1:256">
-      <c r="A17" t="str">
+      <c r="A17" s="4" t="str">
         <v>Italy</v>
       </c>
       <c r="B17">
@@ -523,7 +597,7 @@
       </c>
     </row>
     <row r="18" spans="1:256">
-      <c r="A18" t="str">
+      <c r="A18" s="4" t="str">
         <v>Latvia</v>
       </c>
       <c r="B18">
@@ -531,7 +605,7 @@
       </c>
     </row>
     <row r="19" spans="1:256">
-      <c r="A19" t="str">
+      <c r="A19" s="4" t="str">
         <v>Lithuania</v>
       </c>
       <c r="B19">
@@ -539,7 +613,7 @@
       </c>
     </row>
     <row r="20" spans="1:256">
-      <c r="A20" t="str">
+      <c r="A20" s="4" t="str">
         <v>Luxembourg</v>
       </c>
       <c r="B20">
@@ -547,7 +621,7 @@
       </c>
     </row>
     <row r="21" spans="1:256">
-      <c r="A21" t="str">
+      <c r="A21" s="4" t="str">
         <v>Malta</v>
       </c>
       <c r="B21">
@@ -555,7 +629,7 @@
       </c>
     </row>
     <row r="22" spans="1:256">
-      <c r="A22" t="str">
+      <c r="A22" s="4" t="str">
         <v>Netherlands</v>
       </c>
       <c r="B22">
@@ -563,7 +637,7 @@
       </c>
     </row>
     <row r="23" spans="1:256">
-      <c r="A23" t="str">
+      <c r="A23" s="4" t="str">
         <v>Poland</v>
       </c>
       <c r="B23">
@@ -571,7 +645,7 @@
       </c>
     </row>
     <row r="24" spans="1:256">
-      <c r="A24" t="str">
+      <c r="A24" s="4" t="str">
         <v>Portugal</v>
       </c>
       <c r="B24">
@@ -579,7 +653,7 @@
       </c>
     </row>
     <row r="25" spans="1:256">
-      <c r="A25" t="str">
+      <c r="A25" s="4" t="str">
         <v>Romania</v>
       </c>
       <c r="B25">
@@ -587,7 +661,7 @@
       </c>
     </row>
     <row r="26" spans="1:256">
-      <c r="A26" t="str">
+      <c r="A26" s="4" t="str">
         <v>Slovakia</v>
       </c>
       <c r="B26">
@@ -595,7 +669,7 @@
       </c>
     </row>
     <row r="27" spans="1:256">
-      <c r="A27" t="str">
+      <c r="A27" s="4" t="str">
         <v>Slovenia</v>
       </c>
       <c r="B27">
@@ -603,7 +677,7 @@
       </c>
     </row>
     <row r="28" spans="1:256">
-      <c r="A28" t="str">
+      <c r="A28" s="4" t="str">
         <v>Spain</v>
       </c>
       <c r="B28">
@@ -611,7 +685,7 @@
       </c>
     </row>
     <row r="29" spans="1:256">
-      <c r="A29" t="str">
+      <c r="A29" s="4" t="str">
         <v>Sweden</v>
       </c>
       <c r="B29">
@@ -619,15 +693,18 @@
       </c>
     </row>
     <row r="30" spans="1:256">
-      <c r="A30" t="str">
+      <c r="A30" s="4" t="str">
         <v>United Kingdom</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:256">
+      <c r="A31" s="4"/>
+    </row>
     <row r="32" spans="1:256">
-      <c r="A32" t="str">
+      <c r="A32" s="4" t="str">
         <v>Total visits</v>
       </c>
       <c r="B32">
@@ -656,7 +733,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="256" style="3"/>
+    <col min="1" max="256" style="5"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -679,7 +756,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="256" style="4"/>
+    <col min="1" max="256" style="6"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>

--- a/atlas-table.xlsx
+++ b/atlas-table.xlsx
@@ -25,12 +25,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16" count="16">
+  <si>
+    <t>Yes.</t>
+  </si>
+  <si>
+    <t>905+906 missing</t>
+  </si>
+  <si>
+    <t>Yes.</t>
+  </si>
+  <si>
+    <t>Not consistently</t>
+  </si>
   <si>
     <t>Croatia is a new country, no previous content.</t>
   </si>
   <si>
-    <t>Croatia is a new country, no previous content.</t>
+    <t>405 invalid</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Many open branches, needs to be checked</t>
+  </si>
+  <si>
+    <t>903-906 missing</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>106,107,406,407 not applicable</t>
+  </si>
+  <si>
+    <t>106,107,407 not applicable</t>
+  </si>
+  <si>
+    <t>106,107,407 not applicable
+405 missing one authority type</t>
+  </si>
+  <si>
+    <t>904,905,906 missing</t>
+  </si>
+  <si>
+    <t>906 missing</t>
+  </si>
+  <si>
+    <t>Many missing authority types</t>
   </si>
 </sst>
 </file>
@@ -81,10 +124,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="0" diagonalDown="0">
+    <border diagonalDown="0">
       <top style="none">
         <color rgb="FFC7C7C7"/>
       </top>
+      <bottom style="none">
+        <color rgb="FFC7C7C7"/>
+      </bottom>
     </border>
     <border diagonalUp="0" diagonalDown="0">
       <start style="none">
@@ -104,10 +150,13 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf applyAlignment="0" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="top" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
@@ -136,8 +185,8 @@
   <dimension ref="A1:IV32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -145,566 +194,911 @@
     <col min="1" max="1" style="1" width="19.9988" customWidth="1"/>
     <col min="2" max="2" style="1" width="8.142368" customWidth="1"/>
     <col min="3" max="3" style="1" width="9.570853" customWidth="1"/>
-    <col min="4" max="4" style="1" width="24.28425" customWidth="1"/>
+    <col min="4" max="4" style="1" width="31.99808" customWidth="1"/>
     <col min="5" max="5" style="1" width="25.14135" customWidth="1"/>
     <col min="6" max="6" style="1" width="32.42662" customWidth="1"/>
     <col min="7" max="7" style="1" width="43.99736" customWidth="1"/>
     <col min="8" max="8" style="1" width="38.42626" customWidth="1"/>
     <col min="9" max="256" style="1"/>
+    <col min="257" max="16384" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:256">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="3" t="str">
         <v>Member State</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="3" t="str">
         <v>Asked</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="3" t="str">
         <v>Need</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="3" t="str">
         <v>Classical MLA</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="3" t="str">
         <v>Classical EAW</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="3" t="str">
         <v>New measures implemented</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="3" t="str">
         <v>New instruments used</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="3" t="str">
         <v>Comments/requests</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3"/>
-      <c r="BR1" s="3"/>
-      <c r="BS1" s="3"/>
-      <c r="BT1" s="3"/>
-      <c r="BU1" s="3"/>
-      <c r="BV1" s="3"/>
-      <c r="BW1" s="3"/>
-      <c r="BX1" s="3"/>
-      <c r="BY1" s="3"/>
-      <c r="BZ1" s="3"/>
-      <c r="CA1" s="3"/>
-      <c r="CB1" s="3"/>
-      <c r="CC1" s="3"/>
-      <c r="CD1" s="3"/>
-      <c r="CE1" s="3"/>
-      <c r="CF1" s="3"/>
-      <c r="CG1" s="3"/>
-      <c r="CH1" s="3"/>
-      <c r="CI1" s="3"/>
-      <c r="CJ1" s="3"/>
-      <c r="CK1" s="3"/>
-      <c r="CL1" s="3"/>
-      <c r="CM1" s="3"/>
-      <c r="CN1" s="3"/>
-      <c r="CO1" s="3"/>
-      <c r="CP1" s="3"/>
-      <c r="CQ1" s="3"/>
-      <c r="CR1" s="3"/>
-      <c r="CS1" s="3"/>
-      <c r="CT1" s="3"/>
-      <c r="CU1" s="3"/>
-      <c r="CV1" s="3"/>
-      <c r="CW1" s="3"/>
-      <c r="CX1" s="3"/>
-      <c r="CY1" s="3"/>
-      <c r="CZ1" s="3"/>
-      <c r="DA1" s="3"/>
-      <c r="DB1" s="3"/>
-      <c r="DC1" s="3"/>
-      <c r="DD1" s="3"/>
-      <c r="DE1" s="3"/>
-      <c r="DF1" s="3"/>
-      <c r="DG1" s="3"/>
-      <c r="DH1" s="3"/>
-      <c r="DI1" s="3"/>
-      <c r="DJ1" s="3"/>
-      <c r="DK1" s="3"/>
-      <c r="DL1" s="3"/>
-      <c r="DM1" s="3"/>
-      <c r="DN1" s="3"/>
-      <c r="DO1" s="3"/>
-      <c r="DP1" s="3"/>
-      <c r="DQ1" s="3"/>
-      <c r="DR1" s="3"/>
-      <c r="DS1" s="3"/>
-      <c r="DT1" s="3"/>
-      <c r="DU1" s="3"/>
-      <c r="DV1" s="3"/>
-      <c r="DW1" s="3"/>
-      <c r="DX1" s="3"/>
-      <c r="DY1" s="3"/>
-      <c r="DZ1" s="3"/>
-      <c r="EA1" s="3"/>
-      <c r="EB1" s="3"/>
-      <c r="EC1" s="3"/>
-      <c r="ED1" s="3"/>
-      <c r="EE1" s="3"/>
-      <c r="EF1" s="3"/>
-      <c r="EG1" s="3"/>
-      <c r="EH1" s="3"/>
-      <c r="EI1" s="3"/>
-      <c r="EJ1" s="3"/>
-      <c r="EK1" s="3"/>
-      <c r="EL1" s="3"/>
-      <c r="EM1" s="3"/>
-      <c r="EN1" s="3"/>
-      <c r="EO1" s="3"/>
-      <c r="EP1" s="3"/>
-      <c r="EQ1" s="3"/>
-      <c r="ER1" s="3"/>
-      <c r="ES1" s="3"/>
-      <c r="ET1" s="3"/>
-      <c r="EU1" s="3"/>
-      <c r="EV1" s="3"/>
-      <c r="EW1" s="3"/>
-      <c r="EX1" s="3"/>
-      <c r="EY1" s="3"/>
-      <c r="EZ1" s="3"/>
-      <c r="FA1" s="3"/>
-      <c r="FB1" s="3"/>
-      <c r="FC1" s="3"/>
-      <c r="FD1" s="3"/>
-      <c r="FE1" s="3"/>
-      <c r="FF1" s="3"/>
-      <c r="FG1" s="3"/>
-      <c r="FH1" s="3"/>
-      <c r="FI1" s="3"/>
-      <c r="FJ1" s="3"/>
-      <c r="FK1" s="3"/>
-      <c r="FL1" s="3"/>
-      <c r="FM1" s="3"/>
-      <c r="FN1" s="3"/>
-      <c r="FO1" s="3"/>
-      <c r="FP1" s="3"/>
-      <c r="FQ1" s="3"/>
-      <c r="FR1" s="3"/>
-      <c r="FS1" s="3"/>
-      <c r="FT1" s="3"/>
-      <c r="FU1" s="3"/>
-      <c r="FV1" s="3"/>
-      <c r="FW1" s="3"/>
-      <c r="FX1" s="3"/>
-      <c r="FY1" s="3"/>
-      <c r="FZ1" s="3"/>
-      <c r="GA1" s="3"/>
-      <c r="GB1" s="3"/>
-      <c r="GC1" s="3"/>
-      <c r="GD1" s="3"/>
-      <c r="GE1" s="3"/>
-      <c r="GF1" s="3"/>
-      <c r="GG1" s="3"/>
-      <c r="GH1" s="3"/>
-      <c r="GI1" s="3"/>
-      <c r="GJ1" s="3"/>
-      <c r="GK1" s="3"/>
-      <c r="GL1" s="3"/>
-      <c r="GM1" s="3"/>
-      <c r="GN1" s="3"/>
-      <c r="GO1" s="3"/>
-      <c r="GP1" s="3"/>
-      <c r="GQ1" s="3"/>
-      <c r="GR1" s="3"/>
-      <c r="GS1" s="3"/>
-      <c r="GT1" s="3"/>
-      <c r="GU1" s="3"/>
-      <c r="GV1" s="3"/>
-      <c r="GW1" s="3"/>
-      <c r="GX1" s="3"/>
-      <c r="GY1" s="3"/>
-      <c r="GZ1" s="3"/>
-      <c r="HA1" s="3"/>
-      <c r="HB1" s="3"/>
-      <c r="HC1" s="3"/>
-      <c r="HD1" s="3"/>
-      <c r="HE1" s="3"/>
-      <c r="HF1" s="3"/>
-      <c r="HG1" s="3"/>
-      <c r="HH1" s="3"/>
-      <c r="HI1" s="3"/>
-      <c r="HJ1" s="3"/>
-      <c r="HK1" s="3"/>
-      <c r="HL1" s="3"/>
-      <c r="HM1" s="3"/>
-      <c r="HN1" s="3"/>
-      <c r="HO1" s="3"/>
-      <c r="HP1" s="3"/>
-      <c r="HQ1" s="3"/>
-      <c r="HR1" s="3"/>
-      <c r="HS1" s="3"/>
-      <c r="HT1" s="3"/>
-      <c r="HU1" s="3"/>
-      <c r="HV1" s="3"/>
-      <c r="HW1" s="3"/>
-      <c r="HX1" s="3"/>
-      <c r="HY1" s="3"/>
-      <c r="HZ1" s="3"/>
-      <c r="IA1" s="3"/>
-      <c r="IB1" s="3"/>
-      <c r="IC1" s="3"/>
-      <c r="ID1" s="3"/>
-      <c r="IE1" s="3"/>
-      <c r="IF1" s="3"/>
-      <c r="IG1" s="3"/>
-      <c r="IH1" s="3"/>
-      <c r="II1" s="3"/>
-      <c r="IJ1" s="3"/>
-      <c r="IK1" s="3"/>
-      <c r="IL1" s="3"/>
-      <c r="IM1" s="3"/>
-      <c r="IN1" s="3"/>
-      <c r="IO1" s="3"/>
-      <c r="IP1" s="3"/>
-      <c r="IQ1" s="3"/>
-      <c r="IR1" s="3"/>
-      <c r="IS1" s="3"/>
-      <c r="IT1" s="3"/>
-      <c r="IU1" s="3"/>
-      <c r="IV1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
+      <c r="CC1" s="4"/>
+      <c r="CD1" s="4"/>
+      <c r="CE1" s="4"/>
+      <c r="CF1" s="4"/>
+      <c r="CG1" s="4"/>
+      <c r="CH1" s="4"/>
+      <c r="CI1" s="4"/>
+      <c r="CJ1" s="4"/>
+      <c r="CK1" s="4"/>
+      <c r="CL1" s="4"/>
+      <c r="CM1" s="4"/>
+      <c r="CN1" s="4"/>
+      <c r="CO1" s="4"/>
+      <c r="CP1" s="4"/>
+      <c r="CQ1" s="4"/>
+      <c r="CR1" s="4"/>
+      <c r="CS1" s="4"/>
+      <c r="CT1" s="4"/>
+      <c r="CU1" s="4"/>
+      <c r="CV1" s="4"/>
+      <c r="CW1" s="4"/>
+      <c r="CX1" s="4"/>
+      <c r="CY1" s="4"/>
+      <c r="CZ1" s="4"/>
+      <c r="DA1" s="4"/>
+      <c r="DB1" s="4"/>
+      <c r="DC1" s="4"/>
+      <c r="DD1" s="4"/>
+      <c r="DE1" s="4"/>
+      <c r="DF1" s="4"/>
+      <c r="DG1" s="4"/>
+      <c r="DH1" s="4"/>
+      <c r="DI1" s="4"/>
+      <c r="DJ1" s="4"/>
+      <c r="DK1" s="4"/>
+      <c r="DL1" s="4"/>
+      <c r="DM1" s="4"/>
+      <c r="DN1" s="4"/>
+      <c r="DO1" s="4"/>
+      <c r="DP1" s="4"/>
+      <c r="DQ1" s="4"/>
+      <c r="DR1" s="4"/>
+      <c r="DS1" s="4"/>
+      <c r="DT1" s="4"/>
+      <c r="DU1" s="4"/>
+      <c r="DV1" s="4"/>
+      <c r="DW1" s="4"/>
+      <c r="DX1" s="4"/>
+      <c r="DY1" s="4"/>
+      <c r="DZ1" s="4"/>
+      <c r="EA1" s="4"/>
+      <c r="EB1" s="4"/>
+      <c r="EC1" s="4"/>
+      <c r="ED1" s="4"/>
+      <c r="EE1" s="4"/>
+      <c r="EF1" s="4"/>
+      <c r="EG1" s="4"/>
+      <c r="EH1" s="4"/>
+      <c r="EI1" s="4"/>
+      <c r="EJ1" s="4"/>
+      <c r="EK1" s="4"/>
+      <c r="EL1" s="4"/>
+      <c r="EM1" s="4"/>
+      <c r="EN1" s="4"/>
+      <c r="EO1" s="4"/>
+      <c r="EP1" s="4"/>
+      <c r="EQ1" s="4"/>
+      <c r="ER1" s="4"/>
+      <c r="ES1" s="4"/>
+      <c r="ET1" s="4"/>
+      <c r="EU1" s="4"/>
+      <c r="EV1" s="4"/>
+      <c r="EW1" s="4"/>
+      <c r="EX1" s="4"/>
+      <c r="EY1" s="4"/>
+      <c r="EZ1" s="4"/>
+      <c r="FA1" s="4"/>
+      <c r="FB1" s="4"/>
+      <c r="FC1" s="4"/>
+      <c r="FD1" s="4"/>
+      <c r="FE1" s="4"/>
+      <c r="FF1" s="4"/>
+      <c r="FG1" s="4"/>
+      <c r="FH1" s="4"/>
+      <c r="FI1" s="4"/>
+      <c r="FJ1" s="4"/>
+      <c r="FK1" s="4"/>
+      <c r="FL1" s="4"/>
+      <c r="FM1" s="4"/>
+      <c r="FN1" s="4"/>
+      <c r="FO1" s="4"/>
+      <c r="FP1" s="4"/>
+      <c r="FQ1" s="4"/>
+      <c r="FR1" s="4"/>
+      <c r="FS1" s="4"/>
+      <c r="FT1" s="4"/>
+      <c r="FU1" s="4"/>
+      <c r="FV1" s="4"/>
+      <c r="FW1" s="4"/>
+      <c r="FX1" s="4"/>
+      <c r="FY1" s="4"/>
+      <c r="FZ1" s="4"/>
+      <c r="GA1" s="4"/>
+      <c r="GB1" s="4"/>
+      <c r="GC1" s="4"/>
+      <c r="GD1" s="4"/>
+      <c r="GE1" s="4"/>
+      <c r="GF1" s="4"/>
+      <c r="GG1" s="4"/>
+      <c r="GH1" s="4"/>
+      <c r="GI1" s="4"/>
+      <c r="GJ1" s="4"/>
+      <c r="GK1" s="4"/>
+      <c r="GL1" s="4"/>
+      <c r="GM1" s="4"/>
+      <c r="GN1" s="4"/>
+      <c r="GO1" s="4"/>
+      <c r="GP1" s="4"/>
+      <c r="GQ1" s="4"/>
+      <c r="GR1" s="4"/>
+      <c r="GS1" s="4"/>
+      <c r="GT1" s="4"/>
+      <c r="GU1" s="4"/>
+      <c r="GV1" s="4"/>
+      <c r="GW1" s="4"/>
+      <c r="GX1" s="4"/>
+      <c r="GY1" s="4"/>
+      <c r="GZ1" s="4"/>
+      <c r="HA1" s="4"/>
+      <c r="HB1" s="4"/>
+      <c r="HC1" s="4"/>
+      <c r="HD1" s="4"/>
+      <c r="HE1" s="4"/>
+      <c r="HF1" s="4"/>
+      <c r="HG1" s="4"/>
+      <c r="HH1" s="4"/>
+      <c r="HI1" s="4"/>
+      <c r="HJ1" s="4"/>
+      <c r="HK1" s="4"/>
+      <c r="HL1" s="4"/>
+      <c r="HM1" s="4"/>
+      <c r="HN1" s="4"/>
+      <c r="HO1" s="4"/>
+      <c r="HP1" s="4"/>
+      <c r="HQ1" s="4"/>
+      <c r="HR1" s="4"/>
+      <c r="HS1" s="4"/>
+      <c r="HT1" s="4"/>
+      <c r="HU1" s="4"/>
+      <c r="HV1" s="4"/>
+      <c r="HW1" s="4"/>
+      <c r="HX1" s="4"/>
+      <c r="HY1" s="4"/>
+      <c r="HZ1" s="4"/>
+      <c r="IA1" s="4"/>
+      <c r="IB1" s="4"/>
+      <c r="IC1" s="4"/>
+      <c r="ID1" s="4"/>
+      <c r="IE1" s="4"/>
+      <c r="IF1" s="4"/>
+      <c r="IG1" s="4"/>
+      <c r="IH1" s="4"/>
+      <c r="II1" s="4"/>
+      <c r="IJ1" s="4"/>
+      <c r="IK1" s="4"/>
+      <c r="IL1" s="4"/>
+      <c r="IM1" s="4"/>
+      <c r="IN1" s="4"/>
+      <c r="IO1" s="4"/>
+      <c r="IP1" s="4"/>
+      <c r="IQ1" s="4"/>
+      <c r="IR1" s="4"/>
+      <c r="IS1" s="4"/>
+      <c r="IT1" s="4"/>
+      <c r="IU1" s="4"/>
+      <c r="IV1" s="4"/>
     </row>
     <row r="2" spans="1:256">
-      <c r="A2" s="4"/>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:256" ht="33" customHeight="1">
-      <c r="A3" s="4" t="str">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:256" ht="56.25" customHeight="1">
+      <c r="A3" s="5" t="str">
         <v>Austria</v>
       </c>
       <c r="B3">
         <v>1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>106,107,406,407 not implemented.
+501-505 have open branches</v>
+      </c>
+      <c r="E3" t="str">
+        <v>901 valid</v>
+      </c>
+      <c r="F3" t="str">
+        <v>902-906 not implemented</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Not yet</v>
       </c>
       <c r="H3" t="str">
         <v>Austria requested for a visit to Vienna, in combination with visit to Hungary</v>
       </c>
     </row>
     <row r="4" spans="1:256">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="5" t="str">
         <v>Belgium</v>
       </c>
       <c r="B4">
         <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <v>106,107,406,407 not applicable.</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <v>501-505 group has FD</v>
       </c>
       <c r="H4" t="str">
         <v>Belgium requested a visit to work on new regional division of the country.</v>
       </c>
     </row>
     <row r="5" spans="1:256">
-      <c r="A5" s="4" t="str">
+      <c r="A5" s="5" t="str">
         <v>Bulgaria</v>
       </c>
       <c r="B5">
         <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <v>106,107,406,407 not applicable. Many branches invalid</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="str">
+        <v>902-906 missing</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
       </c>
       <c r="H5" t="str">
         <v>Bulgaria indicated there are some problems with localities belonging to wrong regions. Also there seems to be a general lack of maintenance concerning the contents. Visit was mentioned, but it this point not needed.</v>
       </c>
     </row>
     <row r="6" spans="1:256">
-      <c r="A6" s="4" t="str">
+      <c r="A6" s="5" t="str">
         <v>Croatia</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" t="str">
         <v>Croatia as new country requested for a visit. I am working on the Atlas based on information provided by Tamara.</v>
       </c>
     </row>
     <row r="7" spans="1:256">
-      <c r="A7" s="4" t="str">
+      <c r="A7" s="5" t="str">
         <v>Cyprus</v>
       </c>
       <c r="B7">
         <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
       </c>
       <c r="H7" t="str">
         <v>No comments, no need for Atlas updates.</v>
       </c>
     </row>
     <row r="8" spans="1:256">
-      <c r="A8" s="4" t="str">
+      <c r="A8" s="5" t="str">
         <v>Czech Republic</v>
       </c>
       <c r="B8">
         <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
       </c>
       <c r="H8" t="str">
         <v>TC noted problem with duplicated locality names. No further comments or need for visit.</v>
       </c>
     </row>
     <row r="9" spans="1:256">
-      <c r="A9" s="4" t="str">
+      <c r="A9" s="5" t="str">
         <v>Denmark</v>
       </c>
       <c r="B9">
         <v>0</v>
+      </c>
+      <c r="D9" t="str">
+        <v>106,107,406,407 missing
+405, 501, 502,504 invalid</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
       </c>
       <c r="H9" t="str">
         <v>No comments on Atlas.</v>
       </c>
     </row>
     <row r="10" spans="1:256">
-      <c r="A10" s="4" t="str">
+      <c r="A10" s="5" t="str">
         <v>Estonia</v>
       </c>
       <c r="B10">
         <v>0</v>
+      </c>
+      <c r="D10" t="str">
+        <v>106-107 not applicable</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="str">
+        <v>905 missing</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
       </c>
       <c r="H10" t="str">
         <v>Atlas up-to-date.</v>
       </c>
     </row>
     <row r="11" spans="1:256">
-      <c r="A11" s="4" t="str">
+      <c r="A11" s="5" t="str">
         <v>Finland</v>
       </c>
       <c r="B11">
         <v>0</v>
+      </c>
+      <c r="D11" t="str">
+        <v>106,107,406,407 not applicable.
+405, 501, 502, 503, 504 invalid</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
       </c>
       <c r="H11" t="str">
         <v>Minor changes to localities (going into different regions). No further issues mentioned</v>
       </c>
     </row>
     <row r="12" spans="1:256">
-      <c r="A12" s="4" t="str">
+      <c r="A12" s="5" t="str">
         <v>France</v>
       </c>
       <c r="B12">
         <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
       </c>
       <c r="H12" t="str">
         <v>It was indicated the French Atlas is very out-of-date and contains many mistakes. It will be better to start with a clean set of data.</v>
       </c>
     </row>
     <row r="13" spans="1:256">
-      <c r="A13" s="4" t="str">
+      <c r="A13" s="5" t="str">
         <v>Germany</v>
       </c>
       <c r="B13">
         <v>0</v>
+      </c>
+      <c r="D13" t="str">
+        <v>405 open branches. 406 + 407 not applicable
+</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
       </c>
       <c r="H13" t="str">
         <v>Germany indicated a new Authority Type to be included, which will follow the regional division of existing authority types.</v>
       </c>
     </row>
     <row r="14" spans="1:256">
-      <c r="A14" s="4" t="str">
+      <c r="A14" s="5" t="str">
         <v>Greece</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="str">
+        <v>902,903,904,906 missing</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Greece indicated a new division of the country is needed.</v>
+      </c>
     </row>
     <row r="15" spans="1:256">
-      <c r="A15" s="4" t="str">
+      <c r="A15" s="5" t="str">
         <v>Hungary</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:256">
-      <c r="A16" s="4" t="str">
+      <c r="A16" s="5" t="str">
         <v>Ireland</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:256">
-      <c r="A17" s="4" t="str">
+      <c r="A17" s="5" t="str">
         <v>Italy</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="str">
+        <v>902, 904, 905, 906 missing</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:256">
-      <c r="A18" s="4" t="str">
+      <c r="A18" s="5" t="str">
         <v>Latvia</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:256">
-      <c r="A19" s="4" t="str">
+      <c r="A19" s="5" t="str">
         <v>Lithuania</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="str">
+        <v>903,904,905,906 missing</v>
+      </c>
+      <c r="G19" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:256">
-      <c r="A20" s="4" t="str">
+      <c r="A20" s="5" t="str">
         <v>Luxembourg</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:256">
-      <c r="A21" s="4" t="str">
+      <c r="A21" s="5" t="str">
         <v>Malta</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:256">
-      <c r="A22" s="4" t="str">
+      <c r="A22" s="5" t="str">
         <v>Netherlands</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
+      <c r="D22" t="str">
+        <v>405, 501, 502, 503, 504 have missing authority types</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" t="str">
+        <v>As indicated by TC: some localities are currently in the wrong region.</v>
+      </c>
     </row>
     <row r="23" spans="1:256">
-      <c r="A23" s="4" t="str">
+      <c r="A23" s="5" t="str">
         <v>Poland</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:256">
-      <c r="A24" s="4" t="str">
+      <c r="A24" s="5" t="str">
         <v>Portugal</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Many branches not valid. 
+Portugal also informed us about a change of regional division.</v>
+      </c>
     </row>
     <row r="25" spans="1:256">
-      <c r="A25" s="4" t="str">
+      <c r="A25" s="5" t="str">
         <v>Romania</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:256">
-      <c r="A26" s="4" t="str">
+      <c r="A26" s="5" t="str">
         <v>Slovakia</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="D26" t="str">
+        <v>106,107,406,407 not applicable
+405 + 505 not valid</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Slovakia indicated a missing authority type.</v>
+      </c>
     </row>
     <row r="27" spans="1:256">
-      <c r="A27" s="4" t="str">
+      <c r="A27" s="5" t="str">
         <v>Slovenia</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:256">
-      <c r="A28" s="4" t="str">
+      <c r="A28" s="5" t="str">
         <v>Spain</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
+      <c r="D28" t="str">
+        <v>Currently many open branches</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:256">
-      <c r="A29" s="4" t="str">
+      <c r="A29" s="5" t="str">
         <v>Sweden</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
+      <c r="D29" t="str">
+        <v>405 missing authority type</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Sweden requested additional legal instrument to be added</v>
+      </c>
     </row>
     <row r="30" spans="1:256">
-      <c r="A30" s="4" t="str">
+      <c r="A30" s="5" t="str">
         <v>United Kingdom</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
+      <c r="D30" t="str">
+        <v>Branches open -&gt; not possible</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="str">
+        <v>904, 905, 906 missing</v>
+      </c>
+      <c r="G30" t="str">
+        <v>NA</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Some central authorities in the Atlas system are no longer needed.</v>
+      </c>
     </row>
     <row r="31" spans="1:256">
-      <c r="A31" s="4"/>
+      <c r="A31" s="5"/>
     </row>
     <row r="32" spans="1:256">
-      <c r="A32" s="4" t="str">
+      <c r="A32" s="5" t="str">
         <v>Total visits</v>
       </c>
       <c r="B32">
@@ -733,7 +1127,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="256" style="5"/>
+    <col min="1" max="16384" style="6"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -756,7 +1150,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="256" style="6"/>
+    <col min="1" max="16384" style="7"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
